--- a/src/excel_template/posQC_trend/Local Lreg STR CH240nm Trend format.xlsx
+++ b/src/excel_template/posQC_trend/Local Lreg STR CH240nm Trend format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -300,6 +300,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -509,6 +510,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -533,6 +535,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -593,6 +596,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -802,6 +806,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
@@ -826,6 +831,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -885,6 +891,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1094,6 +1101,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -1118,6 +1126,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1177,6 +1186,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1386,6 +1396,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -1410,6 +1421,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2122,11 +2134,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD194"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -9427,7 +9439,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
